--- a/learn_13/turbineLineInterplator/turbineLineInterplator/indata/turb.xlsx
+++ b/learn_13/turbineLineInterplator/turbineLineInterplator/indata/turb.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\code\git-repository\CPPLearning\learn_13\turbineLineInterplator\turbineLineInterplator\indata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F501888-C072-447A-AAC1-9D9D07E98CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6163A22E-5510-4583-87E2-7D44032DFBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="18">
   <si>
     <t>折合流量</t>
   </si>
@@ -111,7 +112,7 @@
     <numFmt numFmtId="177" formatCode="0.0000000000"/>
     <numFmt numFmtId="178" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +165,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,6 +213,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -220,6 +229,1906 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>膨胀比</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>流量</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33888888888888891"/>
+          <c:y val="5.0925925925925923E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>折合流量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$4:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7215720000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.731919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.844236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9743250000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1232500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2923119999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.482256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0785881000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2391592000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7590572999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0965471000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.156845E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9370768000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0446066E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5613-4E0F-98E4-E85E8BA0176E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="710023840"/>
+        <c:axId val="710021920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="710023840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710021920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="710021920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710023840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>效率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0785881000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2391592000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7590572999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0965471000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.156845E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9370768000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0446066E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$4:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.36667640000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54694710000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84675429999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62880179999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41227750000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000_ ">
+                  <c:v>0.2412396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.209929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE2A-4AEA-B15A-F23E50116EE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1599976256"/>
+        <c:axId val="1599973376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1599976256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1599973376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1599973376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1599976256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819317B7-E30F-451B-94B0-E240BA905119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FCAD00-E759-A7BB-9EB2-D6FFA5F4C150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -499,7 +2408,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2197,7 +4106,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" t="s">
+      <c r="A58" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J58" s="4"/>
@@ -3843,7 +5752,7 @@
       <c r="N114" s="4"/>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" t="s">
+      <c r="A115" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J115" s="4"/>
@@ -5711,4 +7620,4212 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA280D1-B26E-4D40-B85D-1A20385BC565}">
+  <dimension ref="A1:P170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="2" max="8" width="10.69140625" customWidth="1"/>
+    <col min="14" max="14" width="12.921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5.0785881000000005E-4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.7590572999999998E-4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.0965471000000002E-4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9.156845E-4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>9.9370768000000003E-4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.0446066E-3</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.36667640000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.54694710000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.84675429999999996</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.62880179999999997</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.41227750000000002</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.2412396</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.209929</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.7215720000000001</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5.0785881000000005E-4</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <v>5.0785881000000005E-4</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.36667640000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.7215720000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.731919</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.844236</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.9743250000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.1232500000000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.2923119999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.482256</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.731919</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.54694710000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <f>(B3*16200000)/27.8388218141501</f>
+        <v>295.53379726070762</v>
+      </c>
+      <c r="C6" s="5">
+        <f>(C3*16200000)/27.8388218141501</f>
+        <v>304.87776963628357</v>
+      </c>
+      <c r="D6" s="5">
+        <f>(D3*16200000)/27.8388218141501</f>
+        <v>393.32385900162006</v>
+      </c>
+      <c r="E6" s="5">
+        <f>(E3*16200000)/27.8388218141501</f>
+        <v>471.15522307532086</v>
+      </c>
+      <c r="F6" s="5">
+        <f>(F3*16200000)/27.8388218141501</f>
+        <v>532.85620343530604</v>
+      </c>
+      <c r="G6" s="5">
+        <f>(G3*16200000)/27.8388218141501</f>
+        <v>578.25954429643173</v>
+      </c>
+      <c r="H6" s="5">
+        <f>(H3*16200000)/27.8388218141501</f>
+        <v>607.87870381060645</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.844236</v>
+      </c>
+      <c r="K6" s="4">
+        <v>6.7590572999999998E-4</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>6.7590572999999998E-4</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.84675429999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4">
+        <v>1.9743250000000001</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8.0965471000000002E-4</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>8.0965471000000002E-4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.62880179999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.9166224000000004E-4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6.7590572999999998E-4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8.0965471000000002E-4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>9.156845E-4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>9.9370768000000003E-4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.0446066E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.1232500000000001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>9.156845E-4</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <v>9.156845E-4</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.41227750000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.57631840000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.72261799999999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.84971339999999995</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.60109670000000004</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.2864642</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.22414120000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.19611890000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.2923119999999999</v>
+      </c>
+      <c r="K9" s="4">
+        <v>9.9370768000000003E-4</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>9.9370768000000003E-4</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.2412396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.7181930000000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.7375659999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.8435319999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.966054</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.105842</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.2637450000000001</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.439988</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.482256</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.0446066E-3</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <v>1.0446066E-3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.209929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5">
+        <f>(B8*16200000)/27.8388218141501</f>
+        <v>286.10867015756872</v>
+      </c>
+      <c r="C11" s="5">
+        <f>(C8*16200000)/27.8388218141501</f>
+        <v>304.87776963628357</v>
+      </c>
+      <c r="D11" s="5">
+        <f>(D8*16200000)/27.8388218141501</f>
+        <v>393.32385900162006</v>
+      </c>
+      <c r="E11" s="5">
+        <f>(E8*16200000)/27.8388218141501</f>
+        <v>471.15522307532086</v>
+      </c>
+      <c r="F11" s="5">
+        <f>(F8*16200000)/27.8388218141501</f>
+        <v>532.85620343530604</v>
+      </c>
+      <c r="G11" s="5">
+        <f>(G8*16200000)/27.8388218141501</f>
+        <v>578.25954429643173</v>
+      </c>
+      <c r="H11" s="5">
+        <f>(H8*16200000)/27.8388218141501</f>
+        <v>607.87870381060645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.3393756E-4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.4227847999999998E-4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6.0196052E-4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.7590572999999998E-4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8.0965471000000002E-4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>9.156845E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.33391959999999998</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.45823249999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.79415800000000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.84095810000000004</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.61240550000000005</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.38719789999999998</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.26273150000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1.692563</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.696828</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.7412719999999999</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.7891680000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.8407260000000001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.955551</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.0861420000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5">
+        <f>(B13*16200000)/27.8388218141501</f>
+        <v>252.51745633958018</v>
+      </c>
+      <c r="C16" s="5">
+        <f>(C13*16200000)/27.8388218141501</f>
+        <v>257.37121433631114</v>
+      </c>
+      <c r="D16" s="5">
+        <f>(D13*16200000)/27.8388218141501</f>
+        <v>304.87776963628357</v>
+      </c>
+      <c r="E16" s="5">
+        <f>(E13*16200000)/27.8388218141501</f>
+        <v>350.29357524905419</v>
+      </c>
+      <c r="F16" s="5">
+        <f>(F13*16200000)/27.8388218141501</f>
+        <v>393.32385900162006</v>
+      </c>
+      <c r="G16" s="5">
+        <f>(G13*16200000)/27.8388218141501</f>
+        <v>471.15522307532086</v>
+      </c>
+      <c r="H16" s="5">
+        <f>(H13*16200000)/27.8388218141501</f>
+        <v>532.85620343530604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3.9179501000000003E-4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4.0873744999999999E-4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.4227847999999998E-4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.0196052E-4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6.7590572999999998E-4</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8.0965471000000002E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.21862039999999999</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.50101519999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.70533060000000003</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.82521960000000005</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.83928809999999998</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.58048580000000005</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.35279919999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1.678193</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.685872</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.701586</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.743034</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.7877289999999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.835817</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.9428780000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5">
+        <f>(B18*16200000)/27.8388218141501</f>
+        <v>227.99381397577193</v>
+      </c>
+      <c r="C21" s="5">
+        <f>(C18*16200000)/27.8388218141501</f>
+        <v>237.85297862836839</v>
+      </c>
+      <c r="D21" s="5">
+        <f>(D18*16200000)/27.8388218141501</f>
+        <v>257.37121433631114</v>
+      </c>
+      <c r="E21" s="5">
+        <f>(E18*16200000)/27.8388218141501</f>
+        <v>304.87776963628357</v>
+      </c>
+      <c r="F21" s="5">
+        <f>(F18*16200000)/27.8388218141501</f>
+        <v>350.29357524905419</v>
+      </c>
+      <c r="G21" s="5">
+        <f>(G18*16200000)/27.8388218141501</f>
+        <v>393.32385900162006</v>
+      </c>
+      <c r="H21" s="5">
+        <f>(H18*16200000)/27.8388218141501</f>
+        <v>471.15522307532086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3.7474374E-4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.9179501000000003E-4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4.4227847999999998E-4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6.7590572999999998E-4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>7.4528047000000004E-4</v>
+      </c>
+      <c r="H23" s="4">
+        <v>8.0965471000000002E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.54203699999999999</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.65843149999999995</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.78939630000000005</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.83161450000000003</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.53958740000000005</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.33577279999999998</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.31748939999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1.6758280000000001</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.6828149999999999</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.7044509999999999</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.7428429999999999</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.828856</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.876755</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1.928078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5">
+        <f>(B23*16200000)/27.8388218141501</f>
+        <v>218.07131884131203</v>
+      </c>
+      <c r="C26" s="5">
+        <f>(C23*16200000)/27.8388218141501</f>
+        <v>227.99381397577193</v>
+      </c>
+      <c r="D26" s="5">
+        <f>(D23*16200000)/27.8388218141501</f>
+        <v>257.37121433631114</v>
+      </c>
+      <c r="E26" s="5">
+        <f>(E23*16200000)/27.8388218141501</f>
+        <v>304.87776963628357</v>
+      </c>
+      <c r="F26" s="5">
+        <f>(F23*16200000)/27.8388218141501</f>
+        <v>393.32385900162006</v>
+      </c>
+      <c r="G26" s="5">
+        <f>(G23*16200000)/27.8388218141501</f>
+        <v>433.69448946518202</v>
+      </c>
+      <c r="H26" s="5">
+        <f>(H23*16200000)/27.8388218141501</f>
+        <v>471.15522307532086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3.1427541000000002E-4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3.2298418E-4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4.4227847999999998E-4</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="F28" s="4">
+        <v>6.0196052E-4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>6.7590572999999998E-4</v>
+      </c>
+      <c r="H28" s="4">
+        <v>7.4528047000000004E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.32577689999999998</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.6067572</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.81795260000000003</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.82209940000000004</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.52637920000000005</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.4920889</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.29507280000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1.6575770000000001</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.660585</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.7054229999999999</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.7406919999999999</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1.7788029999999999</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.8198639999999999</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.863971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5">
+        <f>(B28*16200000)/27.8388218141501</f>
+        <v>182.88351698174884</v>
+      </c>
+      <c r="C31" s="5">
+        <f>(C28*16200000)/27.8388218141501</f>
+        <v>187.95133468401562</v>
+      </c>
+      <c r="D31" s="5">
+        <f>(D28*16200000)/27.8388218141501</f>
+        <v>257.37121433631114</v>
+      </c>
+      <c r="E31" s="5">
+        <f>(E28*16200000)/27.8388218141501</f>
+        <v>304.87776963628357</v>
+      </c>
+      <c r="F31" s="5">
+        <f>(F28*16200000)/27.8388218141501</f>
+        <v>350.29357524905419</v>
+      </c>
+      <c r="G31" s="5">
+        <f>(G28*16200000)/27.8388218141501</f>
+        <v>393.32385900162006</v>
+      </c>
+      <c r="H31" s="5">
+        <f>(H28*16200000)/27.8388218141501</f>
+        <v>433.69448946518202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2.8801983000000003E-4</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3.2298418E-4</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.5758840000000002E-4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4.4227847999999998E-4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="G33" s="4">
+        <v>6.0196052E-4</v>
+      </c>
+      <c r="H33" s="4">
+        <v>6.7590572999999998E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.66754959999999997</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.83830090000000002</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.88187300000000002</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.81474570000000002</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.80024980000000001</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.47209790000000001</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.2729335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1.653079</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1.6638170000000001</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.6749419999999999</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.704493</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1.7366029999999999</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1.771371</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1.808872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5">
+        <f>(B33*16200000)/27.8388218141501</f>
+        <v>167.60483892419526</v>
+      </c>
+      <c r="C36" s="5">
+        <f>(C33*16200000)/27.8388218141501</f>
+        <v>187.95133468401562</v>
+      </c>
+      <c r="D36" s="5">
+        <f>(D33*16200000)/27.8388218141501</f>
+        <v>208.08826316979875</v>
+      </c>
+      <c r="E36" s="5">
+        <f>(E33*16200000)/27.8388218141501</f>
+        <v>257.37121433631114</v>
+      </c>
+      <c r="F36" s="5">
+        <f>(F33*16200000)/27.8388218141501</f>
+        <v>304.87776963628357</v>
+      </c>
+      <c r="G36" s="5">
+        <f>(G33*16200000)/27.8388218141501</f>
+        <v>350.29357524905419</v>
+      </c>
+      <c r="H36" s="5">
+        <f>(H33*16200000)/27.8388218141501</f>
+        <v>393.32385900162006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2.5273317999999998E-4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2.7041437E-4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.5758840000000002E-4</v>
+      </c>
+      <c r="E38" s="4">
+        <v>4.4227847999999998E-4</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="G38" s="4">
+        <v>6.0196052E-4</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6.7590572999999998E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.71661240000000004</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.81121010000000005</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.90136819999999995</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.79102320000000004</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.4493412</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.41189829999999999</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.23061580000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1.646415</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.6509769999999999</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.6751549999999999</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1.7016659999999999</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1.7305870000000001</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1.761989</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1.795922</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="5">
+        <f>(B38*16200000)/27.8388218141501</f>
+        <v>147.07078996852277</v>
+      </c>
+      <c r="C41" s="5">
+        <f>(C38*16200000)/27.8388218141501</f>
+        <v>157.35984889178545</v>
+      </c>
+      <c r="D41" s="5">
+        <f>(D38*16200000)/27.8388218141501</f>
+        <v>208.08826316979875</v>
+      </c>
+      <c r="E41" s="5">
+        <f>(E38*16200000)/27.8388218141501</f>
+        <v>257.37121433631114</v>
+      </c>
+      <c r="F41" s="5">
+        <f>(F38*16200000)/27.8388218141501</f>
+        <v>304.87776963628357</v>
+      </c>
+      <c r="G41" s="5">
+        <f>(G38*16200000)/27.8388218141501</f>
+        <v>350.29357524905419</v>
+      </c>
+      <c r="H41" s="5">
+        <f>(H38*16200000)/27.8388218141501</f>
+        <v>393.32385900162006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1.9928371E-4</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2.7041437E-4</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3.5758840000000002E-4</v>
+      </c>
+      <c r="E43" s="4">
+        <v>4.4227847999999998E-4</v>
+      </c>
+      <c r="F43" s="4">
+        <v>5.2391592000000002E-4</v>
+      </c>
+      <c r="G43" s="4">
+        <v>6.0196052E-4</v>
+      </c>
+      <c r="H43" s="4">
+        <v>6.3205778000000002E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.37854139999999997</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.88156659999999998</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.78031859999999997</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.74939140000000004</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.37913079999999999</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.34777720000000001</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.19655810000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1.6368529999999999</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1.652282</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1.6735100000000001</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1.6969529999999999</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1.722669</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1.750694</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1.762559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5">
+        <f>(B43*16200000)/27.8388218141501</f>
+        <v>115.96741139235459</v>
+      </c>
+      <c r="C46" s="5">
+        <f>(C43*16200000)/27.8388218141501</f>
+        <v>157.35984889178545</v>
+      </c>
+      <c r="D46" s="5">
+        <f>(D43*16200000)/27.8388218141501</f>
+        <v>208.08826316979875</v>
+      </c>
+      <c r="E46" s="5">
+        <f>(E43*16200000)/27.8388218141501</f>
+        <v>257.37121433631114</v>
+      </c>
+      <c r="F46" s="5">
+        <f>(F43*16200000)/27.8388218141501</f>
+        <v>304.87776963628357</v>
+      </c>
+      <c r="G46" s="5">
+        <f>(G43*16200000)/27.8388218141501</f>
+        <v>350.29357524905419</v>
+      </c>
+      <c r="H46" s="5">
+        <f>(H43*16200000)/27.8388218141501</f>
+        <v>367.80780825988415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1.6336143000000001E-4</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1.8134820999999999E-4</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2.1716292E-4</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3.2298418E-4</v>
+      </c>
+      <c r="F48" s="4">
+        <v>3.5758840000000002E-4</v>
+      </c>
+      <c r="G48" s="4">
+        <v>4.4227847999999998E-4</v>
+      </c>
+      <c r="H48" s="4">
+        <v>4.7533066000000001E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.55555560000000004</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.78941349999999999</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.87301859999999998</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.74435640000000003</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.72718910000000003</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.68755670000000002</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.32404100000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1.632574</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1.635567</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1.6418010000000001</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1.662463</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1.6700140000000001</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1.690375</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1.6991179999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5">
+        <f>(B48*16200000)/27.8388218141501</f>
+        <v>95.06347587794977</v>
+      </c>
+      <c r="C51" s="5">
+        <f>(C48*16200000)/27.8388218141501</f>
+        <v>105.53036409417062</v>
+      </c>
+      <c r="D51" s="5">
+        <f>(D48*16200000)/27.8388218141501</f>
+        <v>126.37170234739703</v>
+      </c>
+      <c r="E51" s="5">
+        <f>(E48*16200000)/27.8388218141501</f>
+        <v>187.95133468401562</v>
+      </c>
+      <c r="F51" s="5">
+        <f>(F48*16200000)/27.8388218141501</f>
+        <v>208.08826316979875</v>
+      </c>
+      <c r="G51" s="5">
+        <f>(G48*16200000)/27.8388218141501</f>
+        <v>257.37121433631114</v>
+      </c>
+      <c r="H51" s="5">
+        <f>(H48*16200000)/27.8388218141501</f>
+        <v>276.60497787611155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1.453282E-4</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1.6336143000000001E-4</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1.8134820999999999E-4</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2.7041437E-4</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3.5758840000000002E-4</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4.2556682999999999E-4</v>
+      </c>
+      <c r="H53" s="4">
+        <v>4.4227847999999998E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.39233820000000003</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.77729570000000003</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.84268160000000003</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.8944126</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.69933389999999995</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.6656244</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.3071024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1.6305069999999999</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1.6332100000000001</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1.6359889999999999</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1.6510940000000001</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1.6682300000000001</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1.6834249999999999</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1.687432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="5">
+        <f>(B53*16200000)/27.8388218141501</f>
+        <v>84.569557422984474</v>
+      </c>
+      <c r="C56" s="5">
+        <f>(C53*16200000)/27.8388218141501</f>
+        <v>95.06347587794977</v>
+      </c>
+      <c r="D56" s="5">
+        <f>(D53*16200000)/27.8388218141501</f>
+        <v>105.53036409417062</v>
+      </c>
+      <c r="E56" s="5">
+        <f>(E53*16200000)/27.8388218141501</f>
+        <v>157.35984889178545</v>
+      </c>
+      <c r="F56" s="5">
+        <f>(F53*16200000)/27.8388218141501</f>
+        <v>208.08826316979875</v>
+      </c>
+      <c r="G56" s="5">
+        <f>(G53*16200000)/27.8388218141501</f>
+        <v>247.64635127251611</v>
+      </c>
+      <c r="H56" s="5">
+        <f>(H53*16200000)/27.8388218141501</f>
+        <v>257.37121433631114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="4">
+        <v>4.9166783000000004E-4</v>
+      </c>
+      <c r="C60" s="4">
+        <v>5.2392273000000003E-4</v>
+      </c>
+      <c r="D60" s="4">
+        <v>6.7592132999999999E-4</v>
+      </c>
+      <c r="E60" s="4">
+        <v>8.0968380999999997E-4</v>
+      </c>
+      <c r="F60" s="4">
+        <v>9.1572956000000004E-4</v>
+      </c>
+      <c r="G60" s="4">
+        <v>9.9377171000000005E-4</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1.0446901000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.39066659999999997</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.65677090000000005</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.84961779999999998</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.61578200000000005</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.2983015</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.23271620000000001</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.203067</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1.7150240000000001</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1.734985</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1.8441460000000001</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1.970477</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2.1148370000000001</v>
+      </c>
+      <c r="G62" s="4">
+        <v>2.2783199999999999</v>
+      </c>
+      <c r="H62" s="4">
+        <v>2.4613930000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="4">
+        <f>(B60*16200000)/27.8388218141501</f>
+        <v>286.11192309695696</v>
+      </c>
+      <c r="C63" s="4">
+        <f>(C60*16200000)/27.8388218141501</f>
+        <v>304.88173251950963</v>
+      </c>
+      <c r="D63" s="4">
+        <f>(D60*16200000)/27.8388218141501</f>
+        <v>393.33293697200577</v>
+      </c>
+      <c r="E63" s="4">
+        <f>(E60*16200000)/27.8388218141501</f>
+        <v>471.17215698161715</v>
+      </c>
+      <c r="F63" s="4">
+        <f>(F60*16200000)/27.8388218141501</f>
+        <v>532.88242480361214</v>
+      </c>
+      <c r="G63" s="4">
+        <f>(G60*16200000)/27.8388218141501</f>
+        <v>578.29680470949529</v>
+      </c>
+      <c r="H63" s="4">
+        <f>(H60*16200000)/27.8388218141501</f>
+        <v>607.92729422901687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="4">
+        <v>4.9166783000000004E-4</v>
+      </c>
+      <c r="C65" s="4">
+        <v>5.2392273000000003E-4</v>
+      </c>
+      <c r="D65" s="4">
+        <v>6.7592132999999999E-4</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8.0968380999999997E-4</v>
+      </c>
+      <c r="F65" s="4">
+        <v>9.1572956000000004E-4</v>
+      </c>
+      <c r="G65" s="4">
+        <v>9.9377171000000005E-4</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1.0446901000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.57669689999999996</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.72295620000000005</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.84995189999999998</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.60120340000000005</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.28648570000000001</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.2241533</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.19612740000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1.7181930000000001</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1.7375659999999999</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1.8435319999999999</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1.966054</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2.105842</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2.2637450000000001</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2.439988</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="4">
+        <f>(B65*16200000)/27.8388218141501</f>
+        <v>286.11192309695696</v>
+      </c>
+      <c r="C68" s="4">
+        <f>(C65*16200000)/27.8388218141501</f>
+        <v>304.88173251950963</v>
+      </c>
+      <c r="D68" s="4">
+        <f>(D65*16200000)/27.8388218141501</f>
+        <v>393.33293697200577</v>
+      </c>
+      <c r="E68" s="4">
+        <f>(E65*16200000)/27.8388218141501</f>
+        <v>471.17215698161715</v>
+      </c>
+      <c r="F68" s="4">
+        <f>(F65*16200000)/27.8388218141501</f>
+        <v>532.88242480361214</v>
+      </c>
+      <c r="G68" s="4">
+        <f>(G65*16200000)/27.8388218141501</f>
+        <v>578.29680470949529</v>
+      </c>
+      <c r="H68" s="4">
+        <f>(H65*16200000)/27.8388218141501</f>
+        <v>607.92729422901687</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="4">
+        <v>4.4228247000000002E-4</v>
+      </c>
+      <c r="C70" s="4">
+        <v>4.9166783000000004E-4</v>
+      </c>
+      <c r="D70" s="4">
+        <v>5.2392273000000003E-4</v>
+      </c>
+      <c r="E70" s="4">
+        <v>6.7592132999999999E-4</v>
+      </c>
+      <c r="F70" s="7">
+        <v>8.0968380999999997E-4</v>
+      </c>
+      <c r="G70" s="7">
+        <v>9.1572956000000004E-4</v>
+      </c>
+      <c r="H70" s="7">
+        <v>9.9377171000000005E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.45857239999999999</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.73730589999999996</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.79445030000000005</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.61252150000000005</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.38724130000000001</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0.26274989999999998</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0.20695189999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1.696828</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1.7230939999999999</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1.7412719999999999</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1.8407260000000001</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1.955551</v>
+      </c>
+      <c r="G72" s="4">
+        <v>2.0861420000000002</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2.232904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="4">
+        <f>(B70*16200000)/27.8388218141501</f>
+        <v>257.37353620181364</v>
+      </c>
+      <c r="C73" s="4">
+        <f>(C70*16200000)/27.8388218141501</f>
+        <v>286.11192309695696</v>
+      </c>
+      <c r="D73" s="4">
+        <f>(D70*16200000)/27.8388218141501</f>
+        <v>304.88173251950963</v>
+      </c>
+      <c r="E73" s="4">
+        <f>(E70*16200000)/27.8388218141501</f>
+        <v>393.33293697200577</v>
+      </c>
+      <c r="F73" s="4">
+        <f>(F70*16200000)/27.8388218141501</f>
+        <v>471.17215698161715</v>
+      </c>
+      <c r="G73" s="4">
+        <f>(G70*16200000)/27.8388218141501</f>
+        <v>532.88242480361214</v>
+      </c>
+      <c r="H73" s="4">
+        <f>(H70*16200000)/27.8388218141501</f>
+        <v>578.29680470949529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="7">
+        <v>4.0874056999999999E-4</v>
+      </c>
+      <c r="C75" s="7">
+        <v>4.4228247000000002E-4</v>
+      </c>
+      <c r="D75" s="7">
+        <v>5.2392273000000003E-4</v>
+      </c>
+      <c r="E75" s="4">
+        <v>6.7592132999999999E-4</v>
+      </c>
+      <c r="F75" s="4">
+        <v>8.0968380999999997E-4</v>
+      </c>
+      <c r="G75" s="4">
+        <v>9.1572956000000004E-4</v>
+      </c>
+      <c r="H75" s="4">
+        <v>9.9377171000000005E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.50135450000000004</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.70565440000000001</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.82547800000000005</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.58058829999999995</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.35283589999999998</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0.23903469999999999</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0.16413130000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1.685872</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1.701586</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1.743034</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1.835817</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1.9428780000000001</v>
+      </c>
+      <c r="G77" s="4">
+        <v>2.0642260000000001</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2.1999059999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="4">
+        <f>(B75*16200000)/27.8388218141501</f>
+        <v>237.85479422244552</v>
+      </c>
+      <c r="C78" s="4">
+        <f>(C75*16200000)/27.8388218141501</f>
+        <v>257.37353620181364</v>
+      </c>
+      <c r="D78" s="4">
+        <f>(D75*16200000)/27.8388218141501</f>
+        <v>304.88173251950963</v>
+      </c>
+      <c r="E78" s="4">
+        <f>(E75*16200000)/27.8388218141501</f>
+        <v>393.33293697200577</v>
+      </c>
+      <c r="F78" s="4">
+        <f>(F75*16200000)/27.8388218141501</f>
+        <v>471.17215698161715</v>
+      </c>
+      <c r="G78" s="4">
+        <f>(G75*16200000)/27.8388218141501</f>
+        <v>532.88242480361214</v>
+      </c>
+      <c r="H78" s="4">
+        <f>(H75*16200000)/27.8388218141501</f>
+        <v>578.29680470949529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="4">
+        <v>3.5759046999999999E-4</v>
+      </c>
+      <c r="C80" s="4">
+        <v>4.4228247000000002E-4</v>
+      </c>
+      <c r="D80" s="4">
+        <v>5.2392273000000003E-4</v>
+      </c>
+      <c r="E80" s="4">
+        <v>6.0197117000000005E-4</v>
+      </c>
+      <c r="F80" s="4">
+        <v>7.4530183000000002E-4</v>
+      </c>
+      <c r="G80" s="4">
+        <v>8.6682725999999996E-4</v>
+      </c>
+      <c r="H80" s="4">
+        <v>9.5809518999999995E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.29400419999999999</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.78968039999999995</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.8318468</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.82821160000000005</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0.33580520000000003</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0.22087399999999999</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0.17216380000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1.6689499999999999</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1.7044509999999999</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1.7428429999999999</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1.7842610000000001</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1.876755</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1.982613</v>
+      </c>
+      <c r="H82" s="4">
+        <v>2.1009690000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="4">
+        <f>(B80*16200000)/27.8388218141501</f>
+        <v>208.08946774663835</v>
+      </c>
+      <c r="C83" s="4">
+        <f>(C80*16200000)/27.8388218141501</f>
+        <v>257.37353620181364</v>
+      </c>
+      <c r="D83" s="4">
+        <f>(D80*16200000)/27.8388218141501</f>
+        <v>304.88173251950963</v>
+      </c>
+      <c r="E83" s="4">
+        <f>(E80*16200000)/27.8388218141501</f>
+        <v>350.29977270960597</v>
+      </c>
+      <c r="F83" s="4">
+        <f>(F80*16200000)/27.8388218141501</f>
+        <v>433.70691930155618</v>
+      </c>
+      <c r="G83" s="4">
+        <f>(G80*16200000)/27.8388218141501</f>
+        <v>504.42514075298732</v>
+      </c>
+      <c r="H83" s="4">
+        <f>(H80*16200000)/27.8388218141501</f>
+        <v>557.53588214393505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="4">
+        <v>3.2298575000000001E-4</v>
+      </c>
+      <c r="C85" s="4">
+        <v>3.4033544999999998E-4</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3.5759046999999999E-4</v>
+      </c>
+      <c r="E85" s="4">
+        <v>5.2392273000000003E-4</v>
+      </c>
+      <c r="F85" s="4">
+        <v>6.7592132999999999E-4</v>
+      </c>
+      <c r="G85" s="4">
+        <v>8.0968380999999997E-4</v>
+      </c>
+      <c r="H85" s="4">
+        <v>8.6682725999999996E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0.60751900000000003</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0.76795970000000002</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.82534890000000005</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.82231169999999998</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0.49216199999999999</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0.20164199999999999</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0.19589870000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1.660585</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1.666676</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1.6728719999999999</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1.7406919999999999</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1.8198639999999999</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1.9112039999999999</v>
+      </c>
+      <c r="H87" s="4">
+        <v>1.961314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="4">
+        <f>(B85*16200000)/27.8388218141501</f>
+        <v>187.95224830026598</v>
+      </c>
+      <c r="C88" s="4">
+        <f>(C85*16200000)/27.8388218141501</f>
+        <v>198.04840617204547</v>
+      </c>
+      <c r="D88" s="4">
+        <f>(D85*16200000)/27.8388218141501</f>
+        <v>208.08946774663835</v>
+      </c>
+      <c r="E88" s="4">
+        <f>(E85*16200000)/27.8388218141501</f>
+        <v>304.88173251950963</v>
+      </c>
+      <c r="F88" s="4">
+        <f>(F85*16200000)/27.8388218141501</f>
+        <v>393.33293697200577</v>
+      </c>
+      <c r="G88" s="4">
+        <f>(G85*16200000)/27.8388218141501</f>
+        <v>471.17215698161715</v>
+      </c>
+      <c r="H88" s="4">
+        <f>(H85*16200000)/27.8388218141501</f>
+        <v>504.42514075298732</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="4">
+        <v>3.2298575000000001E-4</v>
+      </c>
+      <c r="C90" s="4">
+        <v>3.5759046999999999E-4</v>
+      </c>
+      <c r="D90" s="4">
+        <v>4.4228247000000002E-4</v>
+      </c>
+      <c r="E90" s="4">
+        <v>5.2392273000000003E-4</v>
+      </c>
+      <c r="F90" s="4">
+        <v>6.0197117000000005E-4</v>
+      </c>
+      <c r="G90" s="4">
+        <v>6.7592132999999999E-4</v>
+      </c>
+      <c r="H90" s="4">
+        <v>8.0968380999999997E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.8387114</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.88220019999999999</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.81495859999999998</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.80044649999999995</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.472167</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0.27295649999999999</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0.1752409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="4">
+        <v>1.6638170000000001</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1.6749419999999999</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1.704493</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1.7366029999999999</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1.771371</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1.808872</v>
+      </c>
+      <c r="H92" s="4">
+        <v>1.8923190000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="4">
+        <f>(B90*16200000)/27.8388218141501</f>
+        <v>187.95224830026598</v>
+      </c>
+      <c r="C93" s="4">
+        <f>(C90*16200000)/27.8388218141501</f>
+        <v>208.08946774663835</v>
+      </c>
+      <c r="D93" s="4">
+        <f>(D90*16200000)/27.8388218141501</f>
+        <v>257.37353620181364</v>
+      </c>
+      <c r="E93" s="4">
+        <f>(E90*16200000)/27.8388218141501</f>
+        <v>304.88173251950963</v>
+      </c>
+      <c r="F93" s="4">
+        <f>(F90*16200000)/27.8388218141501</f>
+        <v>350.29977270960597</v>
+      </c>
+      <c r="G93" s="4">
+        <f>(G90*16200000)/27.8388218141501</f>
+        <v>393.33293697200577</v>
+      </c>
+      <c r="H93" s="4">
+        <f>(H90*16200000)/27.8388218141501</f>
+        <v>471.17215698161715</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="4">
+        <v>2.7041524E-4</v>
+      </c>
+      <c r="C95" s="4">
+        <v>3.5759046999999999E-4</v>
+      </c>
+      <c r="D95" s="4">
+        <v>4.4228247000000002E-4</v>
+      </c>
+      <c r="E95" s="4">
+        <v>5.2392273000000003E-4</v>
+      </c>
+      <c r="F95" s="4">
+        <v>6.0197117000000005E-4</v>
+      </c>
+      <c r="G95" s="4">
+        <v>6.7592132999999999E-4</v>
+      </c>
+      <c r="H95" s="4">
+        <v>7.1812647999999995E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0.8116333</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.90164460000000002</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.79121549999999996</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.44940439999999998</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0.4119546</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0.23063359999999999</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0.22257750000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1.6509769999999999</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1.6751549999999999</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1.7016659999999999</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1.7305870000000001</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1.761989</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1.795922</v>
+      </c>
+      <c r="H97" s="4">
+        <v>1.817512</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="4">
+        <f>(B95*16200000)/27.8388218141501</f>
+        <v>157.36035516321078</v>
+      </c>
+      <c r="C98" s="4">
+        <f>(C95*16200000)/27.8388218141501</f>
+        <v>208.08946774663835</v>
+      </c>
+      <c r="D98" s="4">
+        <f>(D95*16200000)/27.8388218141501</f>
+        <v>257.37353620181364</v>
+      </c>
+      <c r="E98" s="4">
+        <f>(E95*16200000)/27.8388218141501</f>
+        <v>304.88173251950963</v>
+      </c>
+      <c r="F98" s="4">
+        <f>(F95*16200000)/27.8388218141501</f>
+        <v>350.29977270960597</v>
+      </c>
+      <c r="G98" s="4">
+        <f>(G95*16200000)/27.8388218141501</f>
+        <v>393.33293697200577</v>
+      </c>
+      <c r="H98" s="4">
+        <f>(H95*16200000)/27.8388218141501</f>
+        <v>417.89300760159216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="4">
+        <v>2.1716338000000001E-4</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2.3498165E-4</v>
+      </c>
+      <c r="D100" s="4">
+        <v>2.7041524E-4</v>
+      </c>
+      <c r="E100" s="4">
+        <v>3.5759046999999999E-4</v>
+      </c>
+      <c r="F100" s="4">
+        <v>4.4228247000000002E-4</v>
+      </c>
+      <c r="G100" s="4">
+        <v>6.0197117000000005E-4</v>
+      </c>
+      <c r="H100" s="4">
+        <v>6.3207018000000002E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.75714519999999996</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.82969150000000003</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.88185709999999995</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.78050889999999995</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0.74956719999999999</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0.34782109999999999</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0.19657169999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1.6405829999999999</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1.6443970000000001</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1.652282</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1.6735100000000001</v>
+      </c>
+      <c r="F102" s="4">
+        <v>1.6969529999999999</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1.750694</v>
+      </c>
+      <c r="H102" s="4">
+        <v>1.762559</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="4">
+        <f>(B100*16200000)/27.8388218141501</f>
+        <v>126.37197003113917</v>
+      </c>
+      <c r="C103" s="4">
+        <f>(C100*16200000)/27.8388218141501</f>
+        <v>136.74079870955975</v>
+      </c>
+      <c r="D103" s="4">
+        <f>(D100*16200000)/27.8388218141501</f>
+        <v>157.36035516321078</v>
+      </c>
+      <c r="E103" s="4">
+        <f>(E100*16200000)/27.8388218141501</f>
+        <v>208.08946774663835</v>
+      </c>
+      <c r="F103" s="4">
+        <f>(F100*16200000)/27.8388218141501</f>
+        <v>257.37353620181364</v>
+      </c>
+      <c r="G103" s="4">
+        <f>(G100*16200000)/27.8388218141501</f>
+        <v>350.29977270960597</v>
+      </c>
+      <c r="H103" s="4">
+        <f>(H100*16200000)/27.8388218141501</f>
+        <v>367.81502408249838</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1.8134849999999999E-4</v>
+      </c>
+      <c r="C105" s="4">
+        <v>2.7041524E-4</v>
+      </c>
+      <c r="D105" s="4">
+        <v>3.2298575000000001E-4</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3.5759046999999999E-4</v>
+      </c>
+      <c r="F105" s="4">
+        <v>4.0874056999999999E-4</v>
+      </c>
+      <c r="G105" s="4">
+        <v>4.4228247000000002E-4</v>
+      </c>
+      <c r="H105" s="4">
+        <v>4.9166783000000004E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.78986540000000005</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0.89532259999999997</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.74453049999999998</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0.72735640000000001</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0.70280169999999997</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0.6877221</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0.31724639999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1.635567</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1.6517599999999999</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1.662463</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1.6700140000000001</v>
+      </c>
+      <c r="F107" s="4">
+        <v>1.6819770000000001</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1.690375</v>
+      </c>
+      <c r="H107" s="4">
+        <v>1.7036169999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="4">
+        <f>(B105*16200000)/27.8388218141501</f>
+        <v>105.53053285131242</v>
+      </c>
+      <c r="C108" s="4">
+        <f>(C105*16200000)/27.8388218141501</f>
+        <v>157.36035516321078</v>
+      </c>
+      <c r="D108" s="4">
+        <f>(D105*16200000)/27.8388218141501</f>
+        <v>187.95224830026598</v>
+      </c>
+      <c r="E108" s="4">
+        <f>(E105*16200000)/27.8388218141501</f>
+        <v>208.08946774663835</v>
+      </c>
+      <c r="F108" s="4">
+        <f>(F105*16200000)/27.8388218141501</f>
+        <v>237.85479422244552</v>
+      </c>
+      <c r="G108" s="4">
+        <f>(G105*16200000)/27.8388218141501</f>
+        <v>257.37353620181364</v>
+      </c>
+      <c r="H108" s="4">
+        <f>(H105*16200000)/27.8388218141501</f>
+        <v>286.11192309695696</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1.4532835E-4</v>
+      </c>
+      <c r="C110" s="4">
+        <v>2.3498165E-4</v>
+      </c>
+      <c r="D110" s="4">
+        <v>2.7041524E-4</v>
+      </c>
+      <c r="E110" s="4">
+        <v>3.2298575000000001E-4</v>
+      </c>
+      <c r="F110" s="4">
+        <v>3.5759046999999999E-4</v>
+      </c>
+      <c r="G110" s="4">
+        <v>4.0874056999999999E-4</v>
+      </c>
+      <c r="H110" s="4">
+        <v>4.4228247000000002E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0.3930304</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0.88969560000000003</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.89465399999999995</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0.71834140000000002</v>
+      </c>
+      <c r="F111" s="4">
+        <v>0.69949329999999998</v>
+      </c>
+      <c r="G111" s="4">
+        <v>0.67369710000000005</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0.30713610000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1.6305069999999999</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1.644811</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1.6510940000000001</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1.66113</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1.6682300000000001</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1.6795020000000001</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1.687432</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="4">
+        <f>(B110*16200000)/27.8388218141501</f>
+        <v>84.56964471116126</v>
+      </c>
+      <c r="C113" s="4">
+        <f>(C110*16200000)/27.8388218141501</f>
+        <v>136.74079870955975</v>
+      </c>
+      <c r="D113" s="4">
+        <f>(D110*16200000)/27.8388218141501</f>
+        <v>157.36035516321078</v>
+      </c>
+      <c r="E113" s="4">
+        <f>(E110*16200000)/27.8388218141501</f>
+        <v>187.95224830026598</v>
+      </c>
+      <c r="F113" s="4">
+        <f>(F110*16200000)/27.8388218141501</f>
+        <v>208.08946774663835</v>
+      </c>
+      <c r="G113" s="4">
+        <f>(G110*16200000)/27.8388218141501</f>
+        <v>237.85479422244552</v>
+      </c>
+      <c r="H113" s="4">
+        <f>(H110*16200000)/27.8388218141501</f>
+        <v>257.37353620181364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="4">
+        <v>4.9165647999999996E-4</v>
+      </c>
+      <c r="C117" s="4">
+        <v>5.2390865000000002E-4</v>
+      </c>
+      <c r="D117" s="4">
+        <v>6.7588936999999998E-4</v>
+      </c>
+      <c r="E117" s="4">
+        <v>8.0962508000000002E-4</v>
+      </c>
+      <c r="F117" s="4">
+        <v>8.6675217999999997E-4</v>
+      </c>
+      <c r="G117" s="4">
+        <v>9.1563753000000001E-4</v>
+      </c>
+      <c r="H117" s="4">
+        <v>9.9364132999999995E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0.38998680000000002</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0.65602210000000005</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0.84911170000000002</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0.61555499999999996</v>
+      </c>
+      <c r="F118" s="4">
+        <v>0.41528409999999999</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0.29825439999999998</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0.2326898</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1.7150240000000001</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1.734985</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1.8441460000000001</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1.970477</v>
+      </c>
+      <c r="F119" s="4">
+        <v>2.0404119999999999</v>
+      </c>
+      <c r="G119" s="4">
+        <v>2.1148370000000001</v>
+      </c>
+      <c r="H119" s="4">
+        <v>2.2783199999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="4">
+        <f>(B117*16200000)/27.8388218141501</f>
+        <v>286.10531829158015</v>
+      </c>
+      <c r="C120" s="4">
+        <f>(C117*16200000)/27.8388218141501</f>
+        <v>304.87353906931537</v>
+      </c>
+      <c r="D120" s="4">
+        <f>(D117*16200000)/27.8388218141501</f>
+        <v>393.31433877113869</v>
+      </c>
+      <c r="E120" s="4">
+        <f>(E117*16200000)/27.8388218141501</f>
+        <v>471.13798075079995</v>
+      </c>
+      <c r="F120" s="4">
+        <f>(F117*16200000)/27.8388218141501</f>
+        <v>504.38145011090057</v>
+      </c>
+      <c r="G120" s="4">
+        <f>(G117*16200000)/27.8388218141501</f>
+        <v>532.82887059754864</v>
+      </c>
+      <c r="H120" s="4">
+        <f>(H117*16200000)/27.8388218141501</f>
+        <v>578.22093382623382</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="4">
+        <v>4.9165647999999996E-4</v>
+      </c>
+      <c r="C122" s="4">
+        <v>5.0785252999999999E-4</v>
+      </c>
+      <c r="D122" s="4">
+        <v>5.2390865000000002E-4</v>
+      </c>
+      <c r="E122" s="4">
+        <v>6.7588936999999998E-4</v>
+      </c>
+      <c r="F122" s="4">
+        <v>8.0962508000000002E-4</v>
+      </c>
+      <c r="G122" s="4">
+        <v>8.6675217999999997E-4</v>
+      </c>
+      <c r="H122" s="4">
+        <v>9.1563753000000001E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.57594909999999999</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0.66621209999999997</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0.72225930000000005</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0.84946410000000006</v>
+      </c>
+      <c r="F123" s="4">
+        <v>0.60098779999999996</v>
+      </c>
+      <c r="G123" s="4">
+        <v>0.40009169999999999</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0.28644170000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1.7181930000000001</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1.727808</v>
+      </c>
+      <c r="D124" s="4">
+        <v>1.7375659999999999</v>
+      </c>
+      <c r="E124" s="4">
+        <v>1.8435319999999999</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1.966054</v>
+      </c>
+      <c r="G124" s="4">
+        <v>2.0338159999999998</v>
+      </c>
+      <c r="H124" s="4">
+        <v>2.105842</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="4">
+        <f>(B122*16200000)/27.8388218141501</f>
+        <v>286.10531829158015</v>
+      </c>
+      <c r="C125" s="4">
+        <f>(C122*16200000)/27.8388218141501</f>
+        <v>295.53014279570618</v>
+      </c>
+      <c r="D125" s="4">
+        <f>(D122*16200000)/27.8388218141501</f>
+        <v>304.87353906931537</v>
+      </c>
+      <c r="E125" s="4">
+        <f>(E122*16200000)/27.8388218141501</f>
+        <v>393.31433877113869</v>
+      </c>
+      <c r="F125" s="4">
+        <f>(F122*16200000)/27.8388218141501</f>
+        <v>471.13798075079995</v>
+      </c>
+      <c r="G125" s="4">
+        <f>(G122*16200000)/27.8388218141501</f>
+        <v>504.38145011090057</v>
+      </c>
+      <c r="H125" s="4">
+        <f>(H122*16200000)/27.8388218141501</f>
+        <v>532.82887059754864</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="4">
+        <v>4.4227397E-4</v>
+      </c>
+      <c r="C127" s="4">
+        <v>4.9165647999999996E-4</v>
+      </c>
+      <c r="D127" s="8">
+        <v>5.2390865000000002E-4</v>
+      </c>
+      <c r="E127" s="8">
+        <v>6.0194939999999998E-4</v>
+      </c>
+      <c r="F127" s="8">
+        <v>6.7588936999999998E-4</v>
+      </c>
+      <c r="G127" s="8">
+        <v>8.0962508000000002E-4</v>
+      </c>
+      <c r="H127" s="8">
+        <v>9.1563753000000001E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0.45785310000000001</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0.73665599999999998</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0.79384209999999999</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0.8407019</v>
+      </c>
+      <c r="F128" s="4">
+        <v>0.61228139999999998</v>
+      </c>
+      <c r="G128" s="4">
+        <v>0.3871539</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0.26271230000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="4">
+        <v>1.696828</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1.7230939999999999</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1.7412719999999999</v>
+      </c>
+      <c r="E129" s="4">
+        <v>1.7891680000000001</v>
+      </c>
+      <c r="F129" s="4">
+        <v>1.8407260000000001</v>
+      </c>
+      <c r="G129" s="4">
+        <v>1.955551</v>
+      </c>
+      <c r="H129" s="4">
+        <v>2.0861420000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="4">
+        <f>(B127*16200000)/27.8388218141501</f>
+        <v>257.36858987179579</v>
+      </c>
+      <c r="C130" s="4">
+        <f>(C127*16200000)/27.8388218141501</f>
+        <v>286.10531829158015</v>
+      </c>
+      <c r="D130" s="4">
+        <f>(D127*16200000)/27.8388218141501</f>
+        <v>304.87353906931537</v>
+      </c>
+      <c r="E130" s="4">
+        <f>(E127*16200000)/27.8388218141501</f>
+        <v>350.28710428554854</v>
+      </c>
+      <c r="F130" s="4">
+        <f>(F127*16200000)/27.8388218141501</f>
+        <v>393.31433877113869</v>
+      </c>
+      <c r="G130" s="4">
+        <f>(G127*16200000)/27.8388218141501</f>
+        <v>471.13798075079995</v>
+      </c>
+      <c r="H130" s="4">
+        <f>(H127*16200000)/27.8388218141501</f>
+        <v>532.82887059754864</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="8">
+        <v>3.9179212999999999E-4</v>
+      </c>
+      <c r="C132" s="8">
+        <v>4.0873422E-4</v>
+      </c>
+      <c r="D132" s="8">
+        <v>4.4227397E-4</v>
+      </c>
+      <c r="E132" s="8">
+        <v>5.2390865000000002E-4</v>
+      </c>
+      <c r="F132" s="8">
+        <v>6.7588936999999998E-4</v>
+      </c>
+      <c r="G132" s="8">
+        <v>8.0962508000000002E-4</v>
+      </c>
+      <c r="H132" s="8">
+        <v>9.1563753000000001E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.21839990000000001</v>
+      </c>
+      <c r="C133" s="4">
+        <v>0.50066469999999996</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0.70495960000000002</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0.82494029999999996</v>
+      </c>
+      <c r="F133" s="4">
+        <v>0.5803796</v>
+      </c>
+      <c r="G133" s="4">
+        <v>0.35276229999999997</v>
+      </c>
+      <c r="H133" s="4">
+        <v>0.23900250000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="4">
+        <v>1.678193</v>
+      </c>
+      <c r="C134" s="4">
+        <v>1.685872</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1.701586</v>
+      </c>
+      <c r="E134" s="4">
+        <v>1.743034</v>
+      </c>
+      <c r="F134" s="4">
+        <v>1.835817</v>
+      </c>
+      <c r="G134" s="4">
+        <v>1.9428780000000001</v>
+      </c>
+      <c r="H134" s="4">
+        <v>2.0642260000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="4">
+        <f>(B132*16200000)/27.8388218141501</f>
+        <v>227.99213804277764</v>
+      </c>
+      <c r="C135" s="4">
+        <f>(C132*16200000)/27.8388218141501</f>
+        <v>237.85109902296162</v>
+      </c>
+      <c r="D135" s="4">
+        <f>(D132*16200000)/27.8388218141501</f>
+        <v>257.36858987179579</v>
+      </c>
+      <c r="E135" s="4">
+        <f>(E132*16200000)/27.8388218141501</f>
+        <v>304.87353906931537</v>
+      </c>
+      <c r="F135" s="4">
+        <f>(F132*16200000)/27.8388218141501</f>
+        <v>393.31433877113869</v>
+      </c>
+      <c r="G135" s="4">
+        <f>(G132*16200000)/27.8388218141501</f>
+        <v>471.13798075079995</v>
+      </c>
+      <c r="H135" s="4">
+        <f>(H132*16200000)/27.8388218141501</f>
+        <v>532.82887059754864</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="8">
+        <v>3.5758619000000001E-4</v>
+      </c>
+      <c r="C137" s="8">
+        <v>3.9179212999999999E-4</v>
+      </c>
+      <c r="D137" s="4">
+        <v>4.4227397E-4</v>
+      </c>
+      <c r="E137" s="4">
+        <v>5.2390865000000002E-4</v>
+      </c>
+      <c r="F137" s="4">
+        <v>6.7588936999999998E-4</v>
+      </c>
+      <c r="G137" s="4">
+        <v>8.0962508000000002E-4</v>
+      </c>
+      <c r="H137" s="4">
+        <v>8.6675217999999997E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0.2934833</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0.65808800000000001</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0.78908820000000002</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0.83136339999999997</v>
+      </c>
+      <c r="F138" s="4">
+        <v>0.53949610000000003</v>
+      </c>
+      <c r="G138" s="4">
+        <v>0.31745839999999997</v>
+      </c>
+      <c r="H138" s="4">
+        <v>0.22084519999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1.6689499999999999</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1.6828149999999999</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1.7044509999999999</v>
+      </c>
+      <c r="E139" s="4">
+        <v>1.7428429999999999</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1.828856</v>
+      </c>
+      <c r="G139" s="4">
+        <v>1.928078</v>
+      </c>
+      <c r="H139" s="4">
+        <v>1.982613</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="4">
+        <f>(B137*16200000)/27.8388218141501</f>
+        <v>208.0869771239941</v>
+      </c>
+      <c r="C140" s="4">
+        <f>(C137*16200000)/27.8388218141501</f>
+        <v>227.99213804277764</v>
+      </c>
+      <c r="D140" s="4">
+        <f>(D137*16200000)/27.8388218141501</f>
+        <v>257.36858987179579</v>
+      </c>
+      <c r="E140" s="4">
+        <f>(E137*16200000)/27.8388218141501</f>
+        <v>304.87353906931537</v>
+      </c>
+      <c r="F140" s="4">
+        <f>(F137*16200000)/27.8388218141501</f>
+        <v>393.31433877113869</v>
+      </c>
+      <c r="G140" s="4">
+        <f>(G137*16200000)/27.8388218141501</f>
+        <v>471.13798075079995</v>
+      </c>
+      <c r="H140" s="4">
+        <f>(H137*16200000)/27.8388218141501</f>
+        <v>504.38145011090057</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="4">
+        <v>3.1427389999999999E-4</v>
+      </c>
+      <c r="C142" s="4">
+        <v>3.229827E-4</v>
+      </c>
+      <c r="D142" s="4">
+        <v>4.4227397E-4</v>
+      </c>
+      <c r="E142" s="4">
+        <v>5.2390865000000002E-4</v>
+      </c>
+      <c r="F142" s="4">
+        <v>6.0194939999999998E-4</v>
+      </c>
+      <c r="G142" s="4">
+        <v>6.7588936999999998E-4</v>
+      </c>
+      <c r="H142" s="4">
+        <v>8.0962508000000002E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0.32503179999999998</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0.60599740000000002</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0.81767730000000005</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0.82187429999999995</v>
+      </c>
+      <c r="F143" s="4">
+        <v>0.52629239999999999</v>
+      </c>
+      <c r="G143" s="4">
+        <v>0.49201139999999999</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0.20161709999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="4">
+        <v>1.6575770000000001</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1.660585</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1.7054229999999999</v>
+      </c>
+      <c r="E144" s="4">
+        <v>1.7406919999999999</v>
+      </c>
+      <c r="F144" s="4">
+        <v>1.7788029999999999</v>
+      </c>
+      <c r="G144" s="4">
+        <v>1.8198639999999999</v>
+      </c>
+      <c r="H144" s="4">
+        <v>1.9112039999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="4">
+        <f>(B142*16200000)/27.8388218141501</f>
+        <v>182.88263828076921</v>
+      </c>
+      <c r="C145" s="4">
+        <f>(C142*16200000)/27.8388218141501</f>
+        <v>187.95047344067132</v>
+      </c>
+      <c r="D145" s="4">
+        <f>(D142*16200000)/27.8388218141501</f>
+        <v>257.36858987179579</v>
+      </c>
+      <c r="E145" s="4">
+        <f>(E142*16200000)/27.8388218141501</f>
+        <v>304.87353906931537</v>
+      </c>
+      <c r="F145" s="4">
+        <f>(F142*16200000)/27.8388218141501</f>
+        <v>350.28710428554854</v>
+      </c>
+      <c r="G145" s="4">
+        <f>(G142*16200000)/27.8388218141501</f>
+        <v>393.31433877113869</v>
+      </c>
+      <c r="H145" s="4">
+        <f>(H142*16200000)/27.8388218141501</f>
+        <v>471.13798075079995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="4">
+        <v>2.8801861000000002E-4</v>
+      </c>
+      <c r="C147" s="4">
+        <v>3.0554341999999997E-4</v>
+      </c>
+      <c r="D147" s="4">
+        <v>3.7474127E-4</v>
+      </c>
+      <c r="E147" s="4">
+        <v>4.4227397E-4</v>
+      </c>
+      <c r="F147" s="4">
+        <v>5.3982105000000002E-4</v>
+      </c>
+      <c r="G147" s="4">
+        <v>6.0194939999999998E-4</v>
+      </c>
+      <c r="H147" s="4">
+        <v>7.4525765000000004E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="4">
+        <v>0.66678579999999998</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.79021529999999995</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0.89263669999999995</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0.81449530000000003</v>
+      </c>
+      <c r="F148" s="4">
+        <v>0.79617680000000002</v>
+      </c>
+      <c r="G148" s="4">
+        <v>0.47202569999999999</v>
+      </c>
+      <c r="H148" s="4">
+        <v>0.25631310000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="4">
+        <v>1.653079</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1.6584000000000001</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1.680652</v>
+      </c>
+      <c r="E149" s="4">
+        <v>1.704493</v>
+      </c>
+      <c r="F149" s="4">
+        <v>1.7433419999999999</v>
+      </c>
+      <c r="G149" s="4">
+        <v>1.771371</v>
+      </c>
+      <c r="H149" s="4">
+        <v>1.8491770000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="4">
+        <f>(B147*16200000)/27.8388218141501</f>
+        <v>167.60412898035739</v>
+      </c>
+      <c r="C150" s="4">
+        <f>(C147*16200000)/27.8388218141501</f>
+        <v>177.80218706971573</v>
+      </c>
+      <c r="D150" s="4">
+        <f>(D147*16200000)/27.8388218141501</f>
+        <v>218.06988149600099</v>
+      </c>
+      <c r="E150" s="4">
+        <f>(E147*16200000)/27.8388218141501</f>
+        <v>257.36858987179579</v>
+      </c>
+      <c r="F150" s="4">
+        <f>(F147*16200000)/27.8388218141501</f>
+        <v>314.13330163114097</v>
+      </c>
+      <c r="G150" s="4">
+        <f>(G147*16200000)/27.8388218141501</f>
+        <v>350.28710428554854</v>
+      </c>
+      <c r="H150" s="4">
+        <f>(H147*16200000)/27.8388218141501</f>
+        <v>433.68121002388716</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="4">
+        <v>2.5273240000000001E-4</v>
+      </c>
+      <c r="C152" s="4">
+        <v>3.5758619000000001E-4</v>
+      </c>
+      <c r="D152" s="4">
+        <v>4.0873422E-4</v>
+      </c>
+      <c r="E152" s="4">
+        <v>4.4227397E-4</v>
+      </c>
+      <c r="F152" s="4">
+        <v>4.9165647999999996E-4</v>
+      </c>
+      <c r="G152" s="4">
+        <v>6.0194939999999998E-4</v>
+      </c>
+      <c r="H152" s="4">
+        <v>6.7588936999999998E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="4">
+        <v>0.71596159999999998</v>
+      </c>
+      <c r="C153" s="4">
+        <v>0.9010669</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0.79898860000000005</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0.79080839999999997</v>
+      </c>
+      <c r="F153" s="4">
+        <v>0.77629060000000005</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0.41184199999999999</v>
+      </c>
+      <c r="H153" s="4">
+        <v>0.23059730000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="4">
+        <v>1.646415</v>
+      </c>
+      <c r="C154" s="4">
+        <v>1.6751549999999999</v>
+      </c>
+      <c r="D154" s="4">
+        <v>1.6907749999999999</v>
+      </c>
+      <c r="E154" s="4">
+        <v>1.7016659999999999</v>
+      </c>
+      <c r="F154" s="4">
+        <v>1.7187239999999999</v>
+      </c>
+      <c r="G154" s="4">
+        <v>1.761989</v>
+      </c>
+      <c r="H154" s="4">
+        <v>1.795922</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="4">
+        <f>(B152*16200000)/27.8388218141501</f>
+        <v>147.07033607000352</v>
+      </c>
+      <c r="C155" s="4">
+        <f>(C152*16200000)/27.8388218141501</f>
+        <v>208.0869771239941</v>
+      </c>
+      <c r="D155" s="4">
+        <f>(D152*16200000)/27.8388218141501</f>
+        <v>237.85109902296162</v>
+      </c>
+      <c r="E155" s="4">
+        <f>(E152*16200000)/27.8388218141501</f>
+        <v>257.36858987179579</v>
+      </c>
+      <c r="F155" s="4">
+        <f>(F152*16200000)/27.8388218141501</f>
+        <v>286.10531829158015</v>
+      </c>
+      <c r="G155" s="4">
+        <f>(G152*16200000)/27.8388218141501</f>
+        <v>350.28710428554854</v>
+      </c>
+      <c r="H155" s="4">
+        <f>(H152*16200000)/27.8388218141501</f>
+        <v>393.31433877113869</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="4">
+        <v>1.9928339000000001E-4</v>
+      </c>
+      <c r="C157" s="4">
+        <v>2.1716247000000001E-4</v>
+      </c>
+      <c r="D157" s="4">
+        <v>3.5758619000000001E-4</v>
+      </c>
+      <c r="E157" s="4">
+        <v>4.0873422E-4</v>
+      </c>
+      <c r="F157" s="4">
+        <v>4.4227397E-4</v>
+      </c>
+      <c r="G157" s="4">
+        <v>4.9165647999999996E-4</v>
+      </c>
+      <c r="H157" s="4">
+        <v>6.0194939999999998E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="4">
+        <v>0.37794660000000002</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0.75614009999999998</v>
+      </c>
+      <c r="D158" s="4">
+        <v>0.7801112</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0.7620015</v>
+      </c>
+      <c r="F158" s="4">
+        <v>0.74919500000000006</v>
+      </c>
+      <c r="G158" s="4">
+        <v>0.39484639999999999</v>
+      </c>
+      <c r="H158" s="4">
+        <v>0.34773330000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="4">
+        <v>1.6368529999999999</v>
+      </c>
+      <c r="C159" s="4">
+        <v>1.6405829999999999</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1.6735100000000001</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1.6873069999999999</v>
+      </c>
+      <c r="F159" s="4">
+        <v>1.6969529999999999</v>
+      </c>
+      <c r="G159" s="4">
+        <v>1.712107</v>
+      </c>
+      <c r="H159" s="4">
+        <v>1.750694</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="4">
+        <f>(B157*16200000)/27.8388218141501</f>
+        <v>115.96722517757745</v>
+      </c>
+      <c r="C160" s="4">
+        <f>(C157*16200000)/27.8388218141501</f>
+        <v>126.37144048286669</v>
+      </c>
+      <c r="D160" s="4">
+        <f>(D157*16200000)/27.8388218141501</f>
+        <v>208.0869771239941</v>
+      </c>
+      <c r="E160" s="4">
+        <f>(E157*16200000)/27.8388218141501</f>
+        <v>237.85109902296162</v>
+      </c>
+      <c r="F160" s="4">
+        <f>(F157*16200000)/27.8388218141501</f>
+        <v>257.36858987179579</v>
+      </c>
+      <c r="G160" s="4">
+        <f>(G157*16200000)/27.8388218141501</f>
+        <v>286.10531829158015</v>
+      </c>
+      <c r="H160" s="4">
+        <f>(H157*16200000)/27.8388218141501</f>
+        <v>350.28710428554854</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="4">
+        <v>1.8134792000000001E-4</v>
+      </c>
+      <c r="C162" s="4">
+        <v>2.1716247000000001E-4</v>
+      </c>
+      <c r="D162" s="4">
+        <v>2.7041338E-4</v>
+      </c>
+      <c r="E162" s="4">
+        <v>3.4033190000000001E-4</v>
+      </c>
+      <c r="F162" s="4">
+        <v>4.0873422E-4</v>
+      </c>
+      <c r="G162" s="4">
+        <v>4.4227397E-4</v>
+      </c>
+      <c r="H162" s="4">
+        <v>4.9165647999999996E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="4">
+        <v>0.78896189999999999</v>
+      </c>
+      <c r="C163" s="4">
+        <v>0.87272190000000005</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0.89478769999999996</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0.73557309999999998</v>
+      </c>
+      <c r="F163" s="4">
+        <v>0.70247020000000004</v>
+      </c>
+      <c r="G163" s="4">
+        <v>0.68737720000000002</v>
+      </c>
+      <c r="H163" s="4">
+        <v>0.31717240000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="4">
+        <v>1.635567</v>
+      </c>
+      <c r="C164" s="4">
+        <v>1.6418010000000001</v>
+      </c>
+      <c r="D164" s="4">
+        <v>1.6517599999999999</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1.666196</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1.6819770000000001</v>
+      </c>
+      <c r="G164" s="4">
+        <v>1.690375</v>
+      </c>
+      <c r="H164" s="4">
+        <v>1.7036169999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="4">
+        <f>(B162*16200000)/27.8388218141501</f>
+        <v>105.53019533702884</v>
+      </c>
+      <c r="C165" s="4">
+        <f>(C162*16200000)/27.8388218141501</f>
+        <v>126.37144048286669</v>
+      </c>
+      <c r="D165" s="4">
+        <f>(D162*16200000)/27.8388218141501</f>
+        <v>157.35927278981868</v>
+      </c>
+      <c r="E165" s="4">
+        <f>(E162*16200000)/27.8388218141501</f>
+        <v>198.0463403518616</v>
+      </c>
+      <c r="F165" s="4">
+        <f>(F162*16200000)/27.8388218141501</f>
+        <v>237.85109902296162</v>
+      </c>
+      <c r="G165" s="4">
+        <f>(G162*16200000)/27.8388218141501</f>
+        <v>257.36858987179579</v>
+      </c>
+      <c r="H165" s="4">
+        <f>(H162*16200000)/27.8388218141501</f>
+        <v>286.10531829158015</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="4">
+        <v>1.4532813000000001E-4</v>
+      </c>
+      <c r="C167" s="4">
+        <v>1.8134792000000001E-4</v>
+      </c>
+      <c r="D167" s="4">
+        <v>2.8801861000000002E-4</v>
+      </c>
+      <c r="E167" s="4">
+        <v>3.5758619000000001E-4</v>
+      </c>
+      <c r="F167" s="4">
+        <v>3.9179212999999999E-4</v>
+      </c>
+      <c r="G167" s="4">
+        <v>4.2556316000000002E-4</v>
+      </c>
+      <c r="H167" s="4">
+        <v>4.4227397E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="4">
+        <v>0.39199299999999998</v>
+      </c>
+      <c r="C168" s="4">
+        <v>0.84232689999999999</v>
+      </c>
+      <c r="D168" s="4">
+        <v>0.89508909999999997</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0.69916</v>
+      </c>
+      <c r="F168" s="4">
+        <v>0.68162489999999998</v>
+      </c>
+      <c r="G168" s="4">
+        <v>0.66546139999999998</v>
+      </c>
+      <c r="H168" s="4">
+        <v>0.3070657</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="4">
+        <v>1.6305069999999999</v>
+      </c>
+      <c r="C169" s="4">
+        <v>1.6359889999999999</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1.654358</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1.6682300000000001</v>
+      </c>
+      <c r="F169" s="4">
+        <v>1.6756610000000001</v>
+      </c>
+      <c r="G169" s="4">
+        <v>1.6834249999999999</v>
+      </c>
+      <c r="H169" s="4">
+        <v>1.687432</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="4">
+        <f>(B167*16200000)/27.8388218141501</f>
+        <v>84.569516688501992</v>
+      </c>
+      <c r="C170" s="4">
+        <f>(C167*16200000)/27.8388218141501</f>
+        <v>105.53019533702884</v>
+      </c>
+      <c r="D170" s="4">
+        <f>(D167*16200000)/27.8388218141501</f>
+        <v>167.60412898035739</v>
+      </c>
+      <c r="E170" s="4">
+        <f>(E167*16200000)/27.8388218141501</f>
+        <v>208.0869771239941</v>
+      </c>
+      <c r="F170" s="4">
+        <f>(F167*16200000)/27.8388218141501</f>
+        <v>227.99213804277764</v>
+      </c>
+      <c r="G170" s="4">
+        <f>(G167*16200000)/27.8388218141501</f>
+        <v>247.64421562179075</v>
+      </c>
+      <c r="H170" s="4">
+        <f>(H167*16200000)/27.8388218141501</f>
+        <v>257.36858987179579</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>